--- a/Unity/Assets/Res/Model/hero005/hero005.xlsx
+++ b/Unity/Assets/Res/Model/hero005/hero005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Unity\Assets\Res\Model\hero005\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE71626C-7E17-456A-B39F-7AF678DEB516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683EB990-C6A7-40C4-BAC8-A22464924EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="4340" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41880" yWindow="2940" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>idle</t>
   </si>
@@ -45,32 +45,23 @@
     <t>passive2</t>
   </si>
   <si>
-    <t>active_1</t>
-  </si>
-  <si>
-    <t>active_2</t>
-  </si>
-  <si>
     <t>attack2</t>
   </si>
   <si>
     <t>dump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>reborn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,14 +71,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -116,11 +99,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -481,7 +461,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>180</v>
@@ -513,8 +493,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>360</v>
@@ -524,8 +504,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>391</v>
@@ -535,46 +515,24 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>430</v>
       </c>
       <c r="C10">
-        <v>540</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="C11">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>519</v>
-      </c>
-      <c r="C12">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>550</v>
-      </c>
-      <c r="C13">
         <v>620</v>
       </c>
     </row>
